--- a/Data/Results/Affinity_Labels_2020.xlsx
+++ b/Data/Results/Affinity_Labels_2020.xlsx
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -945,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1132,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1165,7 +1165,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1176,7 +1176,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1187,7 +1187,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1242,7 +1242,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1264,7 +1264,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1275,7 +1275,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1286,7 +1286,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1308,7 +1308,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1341,7 +1341,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1352,7 +1352,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1396,7 +1396,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1407,7 +1407,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1418,7 +1418,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1429,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1462,7 +1462,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1484,7 +1484,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1517,7 +1517,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1528,7 +1528,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1539,7 +1539,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1616,7 +1616,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1660,7 +1660,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1671,7 +1671,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1682,7 +1682,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1715,7 +1715,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1737,7 +1737,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1770,7 +1770,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1781,7 +1781,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1836,7 +1836,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1858,7 +1858,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1869,7 +1869,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1891,7 +1891,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1924,7 +1924,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1990,7 +1990,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2001,7 +2001,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2012,7 +2012,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2045,7 +2045,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2056,7 +2056,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2089,7 +2089,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2144,7 +2144,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2155,7 +2155,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2166,7 +2166,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2177,7 +2177,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2199,7 +2199,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2265,7 +2265,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2276,7 +2276,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2320,7 +2320,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2331,7 +2331,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2364,7 +2364,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2375,7 +2375,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2408,7 +2408,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2419,7 +2419,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2441,7 +2441,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2463,7 +2463,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:3">
